--- a/Web-In-Test/Web-In-Test/bin/Debug/Book1.xlsx
+++ b/Web-In-Test/Web-In-Test/bin/Debug/Book1.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R67dcd0d7ac634f0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rb0e3430389ed4801"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4a428eea037b4a8a"/>
+  <wetp:taskpane dockstate="" visibility="1" width="700" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re3f3261d75684c6e"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{674522d5-fb22-452c-8f36-7624a5a56160}">
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{829de2d2-36dc-4523-ab86-2d976c5ef947}">
   <we:reference id="19f08cac-0a20-4bc4-b6a4-926d222d6eb1" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
